--- a/_CLUSTER/groups_time_area/Frost/Fe/groups_counts_area3_J.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/Fe/groups_counts_area3_J.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,18 +373,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>47</v>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/Frost/Fe/groups_counts_area3_J.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/Fe/groups_counts_area3_J.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,34 +373,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/Frost/Fe/groups_counts_area3_J.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/Fe/groups_counts_area3_J.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
